--- a/VodovozReports/Reports/Complaints/ComplaintsJournalReport.xlsx
+++ b/VodovozReports/Reports/Complaints/ComplaintsJournalReport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm77\Desktop\ТЕСТ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WORK\_BUILDS\Нестандартные сборки\Беляев\4070\DebugWin\Reports\Complaints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1B03E0-38FF-4EC1-BA18-0F325B5625C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D299704C-0BD2-482C-AA2F-431FD7E8E161}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,6 +550,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AMB5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
@@ -716,7 +719,7 @@
     </row>
     <row r="5" spans="1:18" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" scale="58" fitToHeight="10000" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>